--- a/database/choiceQ.xlsx
+++ b/database/choiceQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myCode\Summer course\Summer-course python\MainUI\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21C356C-C551-4034-8FEA-9337FAB9E7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34944BF3-5480-4B50-8BE9-0975CCBA8BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9048" yWindow="240" windowWidth="12492" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,974 +25,1784 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="242">
-  <si>
-    <t>Python 3.x 版本的保留字总数是</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="427">
   <si>
     <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>以下选项中，不是 Python 语言保留字的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>while</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>do</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>except</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>关于 Python 程序格式框架，以下选项中描述错误的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Python 语言不采用严格的“缩进”来表明程序的格式框架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Python 单层缩进代码属于之前最邻近的一行非缩进代码，多层缩进代码根据缩进关系决定所属范围</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Python 语言的缩进可以采用 Tab 键实现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>判断、循环、函数等语法形式能够通过缩进包含一批 Python 代码，进而表达对应的语义</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下列选项中不符合Python语言变量命名规则的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TempStr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>_AI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>以下选项中，关于Python字符串的描述错误的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python语言中，字符串是用一对双引号""或者一对单引号 '' 括起来的零个或者多个字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>字符串包括两种序号体系：正向递增和反向递减</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>字符串是字符的序列，可以按照单个字符或者字符片段进行索引</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python字符串提供区间访问方式，采用[N:M]格式，表示字符串中从N到M的索引子字符串（包含N和M）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>‪‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‪‫‪给出如下代码‪‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‪‫‪ TempStr ="Hello World" 可以输出“World”子串的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>print(TempStr[–5:0])</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>print(TempStr[–5:])</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>print(TempStr[–5: –1])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>print(TempStr[–4: –1])</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于赋值语句，以下选项中描述错误的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>a,b = b,a 可以实现a 和 b值的互换</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a,b,c = b,c,a 是不合法的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>在Python语言中，“=”表示赋值，即将“=”右侧的计算结果赋值给左侧变量，包含“=”的语句称为赋值语句</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>赋值与二元操作符可以组合，例如&amp;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>关于eval函数，以下选项中描述错误的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>eval函数的定义为：eval(source, globals=None, locals=None, /)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>执行“&gt;&gt;&gt; eval("Hello")”和执行“&gt;&gt;&gt; eval("'Hello'")”得到相同的结果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>eval函数的作用是将输入的字符串转为Python语句，并执行该语句</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>如果用户希望输入一个数字，并用程序对这个数字进行计算，可以采用eval(input(&lt;输入提示字符串&gt;))组合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>关于Python语言的注释，以下选项中描述错误的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Python语言有两种注释方式：单行注释和多行注释</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Python语言的单行注释以#开头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Python语言的多行注释以'''（三个单引号）开头和结尾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Python语言的单行注释以单引号 ' 开头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>关于Python语言的特点，以下选项中描述错误的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Python语言是脚本语言</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python语言是非开源语言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Python语言是跨平台语言</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Python语言是多模型语言</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>‪‬‪‬‪‬‪‬‪‬‭‬‪‬‫‬‪‬‪‬‪‬‪‬‪‬‭‬‫‬‭‬‪‬‪‬‪‬‪‬‪‬‭‬‮‬‫‬‪‬‪‬‪‬‪‬‪‬‭‬‫‬‪‬‪‬‪‬‪‬‪‬‪‬‭‬‫‬‪‬关于import引用，以下选项中描述错误的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>可以使用from turtle import setup 引入turtle库</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用import turtle as t引入turtle库，取别名为t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使用import turtle引入turtle库</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>import保留字用于导入模块或者模块中的对象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下面代码的输出结果是‪‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‪‫‪ print（0.1+0.2==0.3）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>True</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>False</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下面代码的输出结果是‪‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‪‫‪ print(round(0.1 + 0.2,1) == 0.3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">True </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>在一行上写多条Python语句使用的符号是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>点号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>冒号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>分号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>逗号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>给出如下代码 s = 'Python is beautiful!' 可以输出“python”的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>print(s[0:6].lower())</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>print(s[:–14])</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>print(s[0:6])</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>print(s[–21: –14].lower)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>给出如下代码 s = 'Python is Open Source!' print(s[0:].upper()) 上述代码的输出结果是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">PYTHON	</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PYTHON IS OPEN SOURCE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Python is Open Source!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PYTHON IS OPEN SOURCE!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>以下选项中，符合Python语言变量命名规则的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Templist</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>！1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(VR)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>下列选项中可以准确查看Python代码的语言版本（3.5.3）的是‪‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‪‫‪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">&gt;&gt;&gt; import sys
 &gt;&gt;&gt; sys.version
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&gt;&gt;&gt; import sys
 &gt;&gt;&gt; sys.exc_info()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&gt;&gt;&gt; import sys
 &gt;&gt;&gt; sys.version—info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&gt;&gt;&gt; import sys
 &gt;&gt;&gt; sys.path</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>下列选项中可以获取Python整数类型帮助的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&gt;&gt;&gt; help(float)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&gt;&gt;&gt; dir(str)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&gt;&gt;&gt; help(int)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;&gt;&gt; dir(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>给出如下代码：
 &gt;&gt;&gt; x = 3.14
 &gt;&gt;&gt; eval('x + 10')
 上述代码的输出结果是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TypeError: must be str, not int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>系统 错</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13.14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3.1410</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Python语言的主网站网址是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.python123.org/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.python.org/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> https://www.python123.io/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://pypi.python.org/pypi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>下列Python保留字中，用于异常处理结构中用来捕获特定类型异常的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>def</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于Python注释，以下选项中描述错误的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Python注释语句不被解释器过滤掉，也不被执行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>注释可用于标明作者和版权信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>注释可以辅助程序调试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>注释用于解释代码原理或者用途</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>‪‬‪‬‪‬‪‬‪‬‭‬‪‬‫‬‪‬‪‬‪‬‪‬‪‬‭‬‫‬‭‬‪‬‪‬‪‬‪‬‪‬‭‬‮‬‫‬‪‬‪‬‪‬‪‬‪‬‭‬‫‬‪‬‪‬‪‬‪‬‪‬‪‬‭‬‫‬‪‬以下选项中，不是Python数据类型的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>实数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>整数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>下列Python保留字中，不用于表示分支结构的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>elif</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">in </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>if</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>else</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下选项中，不属于Python保留字的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>import</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下选项中，对程序的描述错误的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>程序是由一系列函数组成的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>通过封装可以实现代码复用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>可以利用函数对程序进行模块化设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>程序是由一系列代码组成的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>利用print()格式化输出，能够控制浮点数的小数点后两位输出的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{.2}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{:.2f}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{:.2}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{.2f}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>以下选项中可用作Python标识符的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3B9909</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> ____</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>it's</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>关于Python赋值语句，以下选项中不合法的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> x=(y=1)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x,y=y,x</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x=y=1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> x=1;y=1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>以下选项中，不是Python语言保留字的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>del</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>try</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>关于Python程序中与“缩进”有关的说法中，以下选项中正确的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>缩进统一为4个空格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>缩进可以用在任何语句之后，表示语句间的包含关系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>缩进在程序中长度统一且强制使用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩进是非强制性的，仅为了提高代码可读性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>以下选项中可访问字符串s从右侧向左第三个字符的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>s[3]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>s[:-3]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>s[-3]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>s[0:-3]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Python3.0正式发布的年份是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1990</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2018</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2008</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>以下选项中，不是IPO模型一部分的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Program</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Input</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Output</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Process</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>以下选项中，不是Python语言合法命名的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 5MyGod</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MyGod5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> _MyGod_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyGod</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>在Python函数中，用于获取用户输入的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>input()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>print()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Eval()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>get()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">给标识符关联名字的过程是赋值语句	</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>命名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>表达</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>生成语句</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDLE菜单中创建新文件的快捷键是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Ctrl+]	</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ctrl+F</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ctrl+N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ctrl+[</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IDLE菜单中将选中区域缩进的快捷键是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ctrl+]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ctrl+S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ctrl+A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ctrl+C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IDLE菜单中将选中区域取消缩进的快捷键是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ctrl+O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Alt+C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ctrl+V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDLE菜单中将选中区域注释的快捷键是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Alt+3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt+Z</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alt+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Alt+G</t>
-  </si>
-  <si>
-    <t>Alt+Z</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alt+4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDLE菜单中将选中区域取消注释的快捷键是</t>
-  </si>
-  <si>
-    <t>Alt+G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alt+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IDLE菜单将选中区域的空格替换为Tab的快捷键是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Alt+V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Alt+5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Alt+6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>‪‬‪‬‪‬‪‬‪‬‭‬‪‬‫‬‪‬‪‬‪‬‪‬‪‬‭‬‫‬‭‬‪‬‪‬‪‬‪‬‪‬‭‬‮‬‫‬‪‬‪‬‪‬‪‬‪‬‭‬‫‬‪‬‪‬‪‬‪‬‪‬‪‬‭‬‫‬‪‬IDLE菜单将选中区域的Tab替换为空格的快捷键是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Alt+0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>以下选项中，不是Python打开方式的是‪‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‪‫‪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Office</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Windows系统的命令行工具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">带图形界面的Python Shell-IDLE	</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>命令行版本的Python Shell-Python 3.x</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>查看Python是否安装成功的命令是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Win + R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PyCharm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> python3.4 –v	</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>exit()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>‪‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‪‫‪以下选项中，不是Python IDE的是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">PyCharm	</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Jupyter Notebook</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Spyder</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R studio</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Python为源文件指定系统默认字符编码的声明是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> #coding:cp936</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> #coding:GB2312</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> #coding:utf-8	</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#coding:GBK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>下面代码的语法错误显示是
 print "Hello World!"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SyntaxError: Missing parentheses in call to 'print</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameError: name 'raw_print' is not defined</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyntaxError: invalid character in identifier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python 3.x 版本的保留字总数是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下列选项中不符合Python语言变量命名规则的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python语言中，字符串是用一对双引号""或者一对单引号 '' 括起来的零个或者多个字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python字符串提供区间访问方式，采用[N:M]格式，表示字符串中从N到M的索引子字符串（包含N和M）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‪‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‪‫‪给出如下代码‪‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‪‫‪ TempStr ="Hello World" 可以输出“World”子串的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(TempStr[–5: –1])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于赋值语句，以下选项中描述错误的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a,b,c = b,c,a 是不合法的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eval函数的作用是将输入的字符串转为Python语句，并执行该语句</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python语言是非开源语言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用import turtle as t引入turtle库，取别名为t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面代码的输出结果是‪‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‪‫‪ print（0.1+0.2==0.3）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面代码的输出结果是‪‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‫‪‪‪‪‪‪‫‪ print(round(0.1 + 0.2,1) == 0.3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; dir(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于Python注释，以下选项中描述错误的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下选项中，不属于Python保留字的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下选项中，对程序的描述错误的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩进是非强制性的，仅为了提高代码可读性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyGod</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDLE菜单中创建新文件的快捷键是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDLE菜单中将选中区域注释的快捷键是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDLE菜单中将选中区域取消注释的快捷键是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;built-in function print&gt;&lt;o:p&gt;&lt;/o:p&gt;</t>
-  </si>
-  <si>
-    <t>NameError: name 'raw_print' is not defined</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SyntaxError: invalid character in identifier</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ans</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>question</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">x = y = z = 1 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x, y = y, x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x  +=  y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%z</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>raise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>with</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>final</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>semicolon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import = x  if  x &lt; y  else  y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max = x &gt; y ? x : y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>while True : pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40XL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>__name__</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variables do not have to be declared in advance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variables are used directly without creating and assigning values first</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variables do not need to be typed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can use del to release resources</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\'aaa\''</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'""\'aaa\''</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The python language requires all floating-point numbers to have a decimal part</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The decimal part cannot be 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floating point type represents the type with decimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict={}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict2={123:345}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict3={[123]:'hello'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aca'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'ca'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'c'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>as</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;class 'int'&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;class 'long'&gt; </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;class 'str'&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;class 'float'&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcabc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ababcc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{2, 6, 7, 10}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{2, 3, 5, 6, 7, 9, 10}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6, 10}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{2, 3, 5, 7, 9}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If-elif-else statement describes multi branch structure in Python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The branch structure uses the if reserved word</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Python, if-else statements are used to form a two branch structure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The branch structure can jump to the part of the statement that has been executed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“import random”can be omitted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This code realizes a simple number guessing game</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“while True:”creates a loop that always executes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python dictionary is a collection of 0 or more key value pairs. There is no length limit. You can index the content of the value according to the key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python realizes mapping through dictionary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The modification of a key value in the dictionary can be realized through the access and assignment of brackets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function name as return value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contains a loop structure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The function is complex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The function contains a second call to the function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improve code execution speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enhance code readability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce programming complexity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reuse code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>After the function is executed, the value of variable a is 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>After the function is executed, the value of variable b is 100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>After the function is executed, the value of variable c is 200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The function name is func</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are two kinds of variables in a program: global variables and local variables</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global variables cannot have the same name as local variables</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global variables are valid in the whole process of program execution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global variables are generally not indented</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda is not a reserved word in Python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A special function is defined</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lambda functions are also called anonymous functions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>When the file is opened as text, read and write in byte stream mode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python can handle files in both text and binary ways</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The main function of the code is to write a list type to the file and print out the result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>When executing the code, enter "Qingming.txt" from the keyboard, and Qingming.txt is created</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user enters the file path, reads in the content of the file as a text file and prints it line by line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'w'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">'r'    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'r+'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>read</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>readline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>readtext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>readlines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>['gold', 'pink', 'brown', 'purple', 'tomato']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">['gold', 'pink']   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>['gold', 'brown']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>['gold', 'pink', 'brown']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9,6,5,4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[5,4,6,9]            </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,6,9,4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9,4,6,5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the file does not exist, create the file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>There must be a mistake</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depending on the mode of opening, no error may be reported</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The file which does not exist cannot be opened</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The csv files separate elements with special English symbols</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The csv files separate elements with English commas </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The csv file separates elements with English spaces</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The csv files separate elements by semicolons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The result of the python 3 interpreter executing 'not 1 and 1' is ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following statements is illegal in Python？ ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x = (y = z + 1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the placeholders in Python, please select the options that are not placeholders ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following are not keywords in Python ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The tag of Python statement block is ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Python, number types don't include which of the following ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The following Python statements are correct ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (x &gt; y) print x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following is not a valid Python Identifier ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The data types that Python does not support are ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's wrong with Python memory management ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The result of the Python interpreter executing the expression  a = """""'aaa'"""""is  ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>As for the floating-point type of python, the error described in the following options is ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The float() function converts integers and strings to floating-point numbers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The following statement cannot create a dictionary ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict4={(1,2,3):'hi'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python's join method is used to connect the elements in the sequence with the specified characters to generate a new string. The following options are legal  ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>''.join('a','b')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>''.join(['a','b'])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>''.join([1,2,3])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>''.join([1])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The result of the Python interpreter executing the expression 'abbacabb'.strip('ab') is  ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The following options are not Python language keywords ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The result of type(1+0xf*3.14) is ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Here's how to convert a character to a byte ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decode()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>encode()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rstrip()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>str1 = "Runoob example....wow!!!",str2 = "exam",the result of print(str1.find(str2, 5)) is  ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The result of “ab”+”c”*2 is ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is the result of the code running ()
+s1 = {2,6,7,10}
+s2 = {3,10,5,6,9}
+s1.update(s2) 
+print(s1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is the result of the code running ()
+dt = {'list1':[3,4,5],'list2':[],'set1':{2,3,2}}
+print(len(dt))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is not correct ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is not correct about the following code ()
+import random
+num = random.randint(1,10)
+while True:
+    guess = input()
+    i = int(guess)
+    if i == num:
+        print("你猜对了")
+        break
+    elif i &lt; num:
+        print("小了")
+    elif i &gt; num:
+        print("大了")</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random.randint(1,10)  is to produce a Integer num from 1 to 10.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is not correct about Python dictionary  ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you want to keep the order of the elements in a collection, you can use the dictionary type (Python version below 3.6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is correct about Recursive function ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is not correct about function ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is not correct about the following code ()
+def func(a,b):
+  c=a**2+b
+  b=a
+  return c
+a=10
+b=100
+c=func(a,b)+a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is not correct about global and local variables in Python ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is not correct about lambda function  ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>the result of the following code is 10 
+p = lambda x,y:x+y
+print(p(4,6))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is not correct  ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python opens a file through the open() function built into the interpreter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>After using the file, close it with the close () method to release the authorization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is not correct about the following code  ()
+fname = input("请输入要写入的文件: ")
+fo = open(fname, "w+")
+ls = ["清明时节雨纷纷，","路上行人欲断魂，","借问酒家何处有？","牧童遥指杏花村。"]
+fo.writelines(ls)
+fo.seek(0)
+for line in fo:
+    print(line)
+fo.close()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fo. seek (0) can be omitted，the output is unchanged.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fo. writelines (ls) writes the ls list whose elements are all strings to a file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is not correct about the following code ()
+fname = input("请输入要打开的文件: ")
+fi = open(fname, "r")
+for line in fi.readlines():
+    print(line)
+fi.close()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read all the contents of the file into a dictionary fi through fi. readlines() method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read all the contents of the file into a list fi through fi. readlines() method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the above code, fi. readlines() can be optimized to fi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is not Python's open mode for files  ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is not Python's method of reading files  ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following options can output the number of times that "八" appears in the string ()
+s = list("巴老爷有八十八棵芭蕉树，来了八十八个把式要在巴老爷八十八棵芭蕉树下\
+住。老爷拔了八十八棵芭蕉树，不让八十八个把式在八十八棵芭蕉树下住。八十八个\
+把式烧了八十八棵芭蕉树，巴老爷在八十八棵树边哭。")
+ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(s.count("八"))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(s.index("八"))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(s.index("八"),6,len(s))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(s.index("八"),6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is the result of the following code ()
+s =["seashell","gold","pink","brown","purple","tomato"]
+print(s[1:4:2])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is the result of the following code  ()
+a = [9,6,4,5]
+N = len(a)
+for i in range(int(len(a) / 2)):
+    a[i],a[N-i-1] = a[N-i-1],a[i]
+print(a)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is correct When opening a file that does not exist  ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following options is correct about csv file ()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1007,15 +1817,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color theme="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1039,27 +1840,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1337,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F383"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1350,31 +2150,32 @@
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" t="s">
-        <v>240</v>
+      <c r="A1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="B2" s="1">
         <v>27</v>
@@ -1388,995 +2189,4132 @@
       <c r="E2" s="1">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
+      <c r="F5" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>84</v>
+      <c r="A19" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>29</v>
+      <c r="F23" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>106</v>
+      <c r="A24" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
+        <v>96</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>124</v>
+      <c r="A28" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>129</v>
+        <v>110</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>29</v>
+        <v>115</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>136</v>
+        <v>116</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>141</v>
+        <v>121</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>12</v>
+        <v>124</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>12</v>
+        <v>129</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>23</v>
+        <v>143</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>12</v>
+        <v>148</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>12</v>
+        <v>150</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>179</v>
+        <v>157</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>185</v>
+        <v>162</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>12</v>
+        <v>168</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>197</v>
+        <v>171</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>199</v>
+        <v>175</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>202</v>
+        <v>177</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>23</v>
+        <v>176</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E46" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="B49" s="1" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>224</v>
+        <v>197</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>23</v>
+        <v>199</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>1</v>
+        <v>204</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>231</v>
+      <c r="A51" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>233</v>
+        <v>206</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="61.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="153.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="102.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="153.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="143.4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="3"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="3"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="3"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="3"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="3"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="3"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="3"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="3"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="3"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="3"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="3"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="3"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="3"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="3"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="3"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="3"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="3"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="3"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="3"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="3"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="3"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="3"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="3"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="3"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="3"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="3"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="3"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="3"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="3"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="3"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="3"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="3"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="3"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="3"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="3"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="3"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="3"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="3"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="3"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="3"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="3"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="3"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="3"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="3"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="3"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="3"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="3"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="3"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="3"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="3"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="3"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="3"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="3"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="3"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="3"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="3"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="3"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="3"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="3"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="3"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="3"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="3"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="3"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="3"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="3"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="3"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="3"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="3"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="3"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="3"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="3"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="3"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="3"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="3"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="3"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="3"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="3"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="3"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="3"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="3"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="3"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="3"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="3"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="3"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="3"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="3"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="3"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="3"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="3"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="3"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="3"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="3"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="3"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="3"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="3"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="3"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="3"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="3"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="3"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="3"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="3"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="3"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="3"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="3"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="3"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="3"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="3"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="3"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="3"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="3"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="3"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="3"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="3"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="F316" s="3"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="3"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="3"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="3"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="3"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="3"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+      <c r="F322" s="3"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+      <c r="F323" s="3"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="3"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="3"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="3"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="3"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="3"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="3"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="3"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="3"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="3"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="3"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="3"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="3"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="3"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="3"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="3"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="3"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="3"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="3"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="3"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="3"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="3"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="3"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="3"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="3"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="3"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="3"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="3"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="3"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="3"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="3"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="3"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="3"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+      <c r="F356" s="3"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="3"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="3"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="1"/>
+      <c r="F359" s="3"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="1"/>
+      <c r="F360" s="3"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1"/>
+      <c r="F361" s="3"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
+      <c r="F362" s="3"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="1"/>
+      <c r="F363" s="3"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="1"/>
+      <c r="F364" s="3"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="1"/>
+      <c r="F365" s="3"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+      <c r="E366" s="1"/>
+      <c r="F366" s="3"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="1"/>
+      <c r="F367" s="3"/>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="1"/>
+      <c r="F368" s="3"/>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="1"/>
+      <c r="F369" s="3"/>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+      <c r="E370" s="1"/>
+      <c r="F370" s="3"/>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
+      <c r="E371" s="1"/>
+      <c r="F371" s="3"/>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+      <c r="E372" s="1"/>
+      <c r="F372" s="3"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="1"/>
+      <c r="F373" s="3"/>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="1"/>
+      <c r="F374" s="3"/>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="1"/>
+      <c r="F375" s="3"/>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+      <c r="D376" s="1"/>
+      <c r="E376" s="1"/>
+      <c r="F376" s="3"/>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="1"/>
+      <c r="F377" s="3"/>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="1"/>
+      <c r="E378" s="1"/>
+      <c r="F378" s="3"/>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="1"/>
+      <c r="F379" s="3"/>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="1"/>
+      <c r="F380" s="3"/>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="1"/>
+      <c r="F381" s="3"/>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
+      <c r="E382" s="1"/>
+      <c r="F382" s="3"/>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
+      <c r="E383" s="1"/>
+      <c r="F383" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B22" r:id="rId1" xr:uid="{F412EE00-7A62-4F57-A8F0-68F8F235B52E}"/>
     <hyperlink ref="C22" r:id="rId2" xr:uid="{2A725B83-818A-44B6-9DE8-17BB9D7F84BD}"/>
     <hyperlink ref="E22" r:id="rId3" xr:uid="{BBD72267-2C94-43D9-990B-25BF783A3F8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>